--- a/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD53376-5A85-4ABE-95F2-6D7A8F0430D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6C99C7-2CA1-4163-8D94-DB1B04FA879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{708F257D-6C7A-419C-903C-0D19C3AF98C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0FF37CC-34C8-4B69-BCF8-11E39A0B7104}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>14,24%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>85,76%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,91%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>13,63%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>86,37%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,55 +254,55 @@
     <t>14,64%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>84,32%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,109 +311,109 @@
     <t>11,94%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>84,56%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -425,919 +425,877 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>20,89%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>81,65%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>79,11%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>11,68%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>88,32%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>84,46%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>9,24%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>12,67%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>11,83%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>90,76%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>87,33%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>88,17%</t>
+    <t>88,15%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8B0250-6509-4EAE-A874-ADCE17BB7C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9949B64E-AD5C-4983-B67D-ED25DE12AAC4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2812,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1754F7-7A46-4615-8A00-CAE1DEB7BE10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EA67CB-9EF1-495D-8AE3-DBE75FC4049F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3124,10 +3082,10 @@
         <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3100,13 @@
         <v>419279</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -3157,13 +3115,13 @@
         <v>435761</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>809</v>
@@ -3172,13 +3130,13 @@
         <v>855040</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3204,13 @@
         <v>120450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -3261,13 +3219,13 @@
         <v>166696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>260</v>
@@ -3276,13 +3234,13 @@
         <v>287147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,28 +3255,28 @@
         <v>746548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>668</v>
       </c>
       <c r="I11" s="7">
-        <v>732127</v>
+        <v>732126</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1360</v>
@@ -3327,13 +3285,13 @@
         <v>1478674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3318,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>898823</v>
+        <v>898822</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3401,13 +3359,13 @@
         <v>84512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -3416,13 +3374,13 @@
         <v>117711</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -3431,13 +3389,13 @@
         <v>202223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3410,13 @@
         <v>551521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3467,13 +3425,13 @@
         <v>560786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3482,13 +3440,13 @@
         <v>1112307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3514,13 @@
         <v>129056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -3571,13 +3529,13 @@
         <v>163427</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -3586,13 +3544,13 @@
         <v>292483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3565,13 @@
         <v>676620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>732</v>
@@ -3622,13 +3580,13 @@
         <v>769774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7">
         <v>1385</v>
@@ -3637,13 +3595,13 @@
         <v>1446394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3669,13 @@
         <v>437146</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>527</v>
@@ -3726,13 +3684,13 @@
         <v>573698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>921</v>
@@ -3741,13 +3699,13 @@
         <v>1010844</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,28 +3720,28 @@
         <v>2477512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2388</v>
       </c>
       <c r="I20" s="7">
-        <v>2572624</v>
+        <v>2572623</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>4730</v>
@@ -3792,13 +3750,13 @@
         <v>5050136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3783,7 @@
         <v>2915</v>
       </c>
       <c r="I21" s="7">
-        <v>3146322</v>
+        <v>3146321</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3875,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4613A24-D650-4698-A788-CE5A664FB883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA55E26-6DC1-4EF0-BCAA-0D8DC37D829F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +3957,13 @@
         <v>13854</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4014,13 +3972,13 @@
         <v>14468</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4029,13 +3987,13 @@
         <v>28322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4008,13 @@
         <v>84921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4065,13 +4023,13 @@
         <v>86533</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -4080,13 +4038,13 @@
         <v>171454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4112,13 @@
         <v>40479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -4169,13 +4127,13 @@
         <v>49859</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -4184,13 +4142,13 @@
         <v>90337</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4163,13 @@
         <v>385739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>395</v>
@@ -4220,13 +4178,13 @@
         <v>393502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>767</v>
@@ -4235,13 +4193,13 @@
         <v>779243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4267,13 @@
         <v>95579</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -4324,13 +4282,13 @@
         <v>103257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4339,13 +4297,13 @@
         <v>198836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4318,13 @@
         <v>720767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>728</v>
@@ -4375,13 +4333,13 @@
         <v>763116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1392</v>
@@ -4390,13 +4348,13 @@
         <v>1483883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4422,13 @@
         <v>44486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -4479,13 +4437,13 @@
         <v>60995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -4494,13 +4452,13 @@
         <v>105481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4473,13 @@
         <v>505874</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>499</v>
@@ -4530,13 +4488,13 @@
         <v>518743</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>960</v>
@@ -4545,13 +4503,13 @@
         <v>1024617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4577,13 @@
         <v>89327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -4634,13 +4592,13 @@
         <v>105011</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -4649,13 +4607,13 @@
         <v>194338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4628,13 @@
         <v>683308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>720</v>
@@ -4685,13 +4643,13 @@
         <v>771830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>1398</v>
@@ -4700,13 +4658,13 @@
         <v>1455138</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4732,13 @@
         <v>283725</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>298</v>
@@ -4789,13 +4747,13 @@
         <v>333590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -4804,13 +4762,13 @@
         <v>617315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,16 +4780,16 @@
         <v>2257</v>
       </c>
       <c r="D20" s="7">
-        <v>2380609</v>
+        <v>2380608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>2429</v>
@@ -4840,28 +4798,28 @@
         <v>2533725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>4686</v>
       </c>
       <c r="N20" s="7">
-        <v>4914334</v>
+        <v>4914333</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4831,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4903,7 +4861,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4938,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CE2EAA-2E80-414A-89F5-A370DD5B7E7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02657A-EAAA-43EE-957C-6788CE2E5F8A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5020,13 @@
         <v>12561</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -5077,13 +5035,13 @@
         <v>20991</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -5092,13 +5050,13 @@
         <v>33551</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5071,13 @@
         <v>87913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>187</v>
@@ -5128,13 +5086,13 @@
         <v>107295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
@@ -5143,13 +5101,13 @@
         <v>195209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5175,13 @@
         <v>53774</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -5232,13 +5190,13 @@
         <v>77960</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>244</v>
@@ -5247,13 +5205,13 @@
         <v>131734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5226,13 @@
         <v>472375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>794</v>
@@ -5283,13 +5241,13 @@
         <v>491537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>1296</v>
@@ -5298,13 +5256,13 @@
         <v>963912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5330,13 @@
         <v>93538</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -5387,13 +5345,13 @@
         <v>95067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>283</v>
@@ -5402,13 +5360,13 @@
         <v>188606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5381,13 @@
         <v>922058</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>1316</v>
@@ -5438,13 +5396,13 @@
         <v>947033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>2139</v>
@@ -5453,13 +5411,13 @@
         <v>1869090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5485,13 @@
         <v>70326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5542,13 +5500,13 @@
         <v>91284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>229</v>
@@ -5557,13 +5515,13 @@
         <v>161610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5536,13 @@
         <v>638215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>876</v>
@@ -5593,13 +5551,13 @@
         <v>770904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>1450</v>
@@ -5608,13 +5566,13 @@
         <v>1409120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5640,13 @@
         <v>108025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>238</v>
@@ -5697,13 +5655,13 @@
         <v>150858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -5712,13 +5670,13 @@
         <v>258883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5691,13 @@
         <v>818353</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>1272</v>
@@ -5748,13 +5706,13 @@
         <v>963918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>2097</v>
@@ -5763,13 +5721,13 @@
         <v>1782271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5795,13 @@
         <v>338225</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>772</v>
@@ -5852,13 +5810,13 @@
         <v>436160</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>279</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>1206</v>
@@ -5867,13 +5825,13 @@
         <v>774384</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5846,13 @@
         <v>2938913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>4445</v>
@@ -5903,13 +5861,13 @@
         <v>3280688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>7264</v>
@@ -5918,13 +5876,13 @@
         <v>6219602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6C99C7-2CA1-4163-8D94-DB1B04FA879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43DFBDD-4BAA-4EC1-91CE-9074577EEDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0FF37CC-34C8-4B69-BCF8-11E39A0B7104}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E14D6DE2-9A9B-4AAA-89A5-C831C9D579EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>14,24%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1110 +107,1098 @@
     <t>85,76%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
     <t>87,93%</t>
   </si>
   <si>
@@ -1274,9 +1262,6 @@
     <t>12,67%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
     <t>11,85%</t>
   </si>
   <si>
@@ -1290,9 +1275,6 @@
   </si>
   <si>
     <t>87,33%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
   </si>
   <si>
     <t>88,15%</t>
@@ -1707,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9949B64E-AD5C-4983-B67D-ED25DE12AAC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B474E50-B89C-47B9-93C5-23EFCF6860AF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1879,7 +1861,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>66692</v>
+        <v>66693</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1930,7 +1912,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2302,7 +2284,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -2311,13 +2293,13 @@
         <v>97391</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -2326,13 +2308,13 @@
         <v>177191</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2329,13 @@
         <v>465288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -2362,13 +2344,13 @@
         <v>487218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>937</v>
@@ -2377,13 +2359,13 @@
         <v>952507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2421,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2433,13 @@
         <v>84730</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -2466,13 +2448,13 @@
         <v>125683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -2481,13 +2463,13 @@
         <v>210413</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2484,13 @@
         <v>624958</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>662</v>
@@ -2517,13 +2499,13 @@
         <v>688315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1324</v>
@@ -2532,13 +2514,13 @@
         <v>1313273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2588,13 @@
         <v>333652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>433</v>
@@ -2621,13 +2603,13 @@
         <v>442221</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>768</v>
@@ -2636,13 +2618,13 @@
         <v>775873</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2639,13 @@
         <v>2121090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>2246</v>
@@ -2672,13 +2654,13 @@
         <v>2298716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>4318</v>
@@ -2687,13 +2669,13 @@
         <v>4419806</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,7 +2731,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EA67CB-9EF1-495D-8AE3-DBE75FC4049F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63E038E-C57F-4EE6-935D-1C72FBF62EEE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2894,13 +2876,13 @@
         <v>17210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2909,13 +2891,13 @@
         <v>19642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2924,13 +2906,13 @@
         <v>36852</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2927,13 @@
         <v>83544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>66</v>
@@ -2960,13 +2942,13 @@
         <v>74176</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -2975,13 +2957,13 @@
         <v>157720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3031,13 @@
         <v>85918</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -3064,13 +3046,13 @@
         <v>106222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -3079,13 +3061,13 @@
         <v>192140</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3082,13 @@
         <v>419279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -3115,13 +3097,13 @@
         <v>435761</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>809</v>
@@ -3130,13 +3112,13 @@
         <v>855040</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3186,13 @@
         <v>120450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -3219,13 +3201,13 @@
         <v>166696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>260</v>
@@ -3234,13 +3216,13 @@
         <v>287147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3237,13 @@
         <v>746548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>668</v>
@@ -3270,13 +3252,13 @@
         <v>732126</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1360</v>
@@ -3285,13 +3267,13 @@
         <v>1478674</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3341,13 @@
         <v>84512</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -3374,13 +3356,13 @@
         <v>117711</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -3389,13 +3371,13 @@
         <v>202223</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3392,13 @@
         <v>551521</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3425,13 +3407,13 @@
         <v>560786</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3440,13 +3422,13 @@
         <v>1112307</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3484,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3514,10 +3496,10 @@
         <v>129056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>195</v>
@@ -3532,10 +3514,10 @@
         <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -3544,13 +3526,13 @@
         <v>292483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3547,13 @@
         <v>676620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>732</v>
@@ -3580,13 +3562,13 @@
         <v>769774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1385</v>
@@ -3595,13 +3577,13 @@
         <v>1446394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3651,13 @@
         <v>437146</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>527</v>
@@ -3684,13 +3666,13 @@
         <v>573698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>921</v>
@@ -3699,13 +3681,13 @@
         <v>1010844</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3702,13 @@
         <v>2477512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7">
         <v>2388</v>
@@ -3735,13 +3717,13 @@
         <v>2572623</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4730</v>
@@ -3750,13 +3732,13 @@
         <v>5050136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3794,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA55E26-6DC1-4EF0-BCAA-0D8DC37D829F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FB518-C26F-4833-BAF9-21D421C9D05B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,13 +3939,13 @@
         <v>13854</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3972,13 +3954,13 @@
         <v>14468</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -3987,13 +3969,13 @@
         <v>28322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +3990,13 @@
         <v>84921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4023,7 +4005,7 @@
         <v>86533</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>239</v>
@@ -4145,10 +4127,10 @@
         <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,10 +4178,10 @@
         <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,10 +4252,10 @@
         <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -4282,13 +4264,13 @@
         <v>103257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4297,13 +4279,13 @@
         <v>198836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4306,7 @@
         <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>728</v>
@@ -4333,13 +4315,13 @@
         <v>763116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1392</v>
@@ -4348,10 +4330,10 @@
         <v>1483883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>275</v>
@@ -4565,7 +4547,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4583,7 +4565,7 @@
         <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -4592,13 +4574,13 @@
         <v>105011</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -4607,7 +4589,7 @@
         <v>194338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>299</v>
@@ -4631,10 +4613,10 @@
         <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>720</v>
@@ -4643,13 +4625,13 @@
         <v>771830</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>1398</v>
@@ -4658,7 +4640,7 @@
         <v>1455138</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>306</v>
@@ -4735,10 +4717,10 @@
         <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>298</v>
@@ -4747,13 +4729,13 @@
         <v>333590</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -4762,13 +4744,13 @@
         <v>617315</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,16 +4762,16 @@
         <v>2257</v>
       </c>
       <c r="D20" s="7">
-        <v>2380608</v>
+        <v>2380609</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>2429</v>
@@ -4798,13 +4780,13 @@
         <v>2533725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>4686</v>
@@ -4813,13 +4795,13 @@
         <v>4914333</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,7 +4813,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4875,7 +4857,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02657A-EAAA-43EE-957C-6788CE2E5F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0723D831-62D0-4381-A2A7-C388EF199D2D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,13 +5002,13 @@
         <v>12561</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -5035,13 +5017,13 @@
         <v>20991</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -5050,13 +5032,13 @@
         <v>33551</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5053,13 @@
         <v>87913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>187</v>
@@ -5086,13 +5068,13 @@
         <v>107295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
@@ -5101,13 +5083,13 @@
         <v>195209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5157,13 @@
         <v>53774</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -5190,13 +5172,13 @@
         <v>77960</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>244</v>
@@ -5205,13 +5187,13 @@
         <v>131734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5208,13 @@
         <v>472375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>794</v>
@@ -5241,13 +5223,13 @@
         <v>491537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>1296</v>
@@ -5256,13 +5238,13 @@
         <v>963912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5312,13 @@
         <v>93538</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -5345,13 +5327,13 @@
         <v>95067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>283</v>
@@ -5360,13 +5342,13 @@
         <v>188606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5363,13 @@
         <v>922058</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>1316</v>
@@ -5396,13 +5378,13 @@
         <v>947033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>2139</v>
@@ -5411,13 +5393,13 @@
         <v>1869090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5467,13 @@
         <v>70326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5500,13 +5482,13 @@
         <v>91284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>229</v>
@@ -5515,13 +5497,13 @@
         <v>161610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5518,13 @@
         <v>638215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>876</v>
@@ -5551,13 +5533,13 @@
         <v>770904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>1450</v>
@@ -5566,10 +5548,10 @@
         <v>1409120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>285</v>
@@ -5628,7 +5610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5640,13 +5622,13 @@
         <v>108025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>238</v>
@@ -5655,13 +5637,13 @@
         <v>150858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -5670,13 +5652,13 @@
         <v>258883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5673,13 @@
         <v>818353</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>1272</v>
@@ -5706,13 +5688,13 @@
         <v>963918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>2097</v>
@@ -5721,13 +5703,13 @@
         <v>1782271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5777,13 @@
         <v>338225</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>772</v>
@@ -5810,13 +5792,13 @@
         <v>436160</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>1206</v>
@@ -5825,13 +5807,13 @@
         <v>774384</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5828,13 @@
         <v>2938913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>4445</v>
@@ -5861,10 +5843,10 @@
         <v>3280688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>288</v>
@@ -5876,13 +5858,13 @@
         <v>6219602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,7 +5920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43DFBDD-4BAA-4EC1-91CE-9074577EEDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5604743-2EF1-442E-8ECA-95F753E76BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E14D6DE2-9A9B-4AAA-89A5-C831C9D579EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D5A0E94-4624-4CFD-B9CD-2885A45CB707}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,1213 +71,1273 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>86,29%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,91%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>88,17%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B474E50-B89C-47B9-93C5-23EFCF6860AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B56C02-9BBF-46B4-8B98-71B1E64BCAE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1861,7 +1921,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>66693</v>
+        <v>66692</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1912,7 +1972,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2284,7 +2344,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -2293,13 +2353,13 @@
         <v>97391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -2308,13 +2368,13 @@
         <v>177191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2389,13 @@
         <v>465288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -2344,13 +2404,13 @@
         <v>487218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>937</v>
@@ -2359,13 +2419,13 @@
         <v>952507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,7 +2481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2433,13 +2493,13 @@
         <v>84730</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -2448,13 +2508,13 @@
         <v>125683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -2463,13 +2523,13 @@
         <v>210413</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2544,13 @@
         <v>624958</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>662</v>
@@ -2499,13 +2559,13 @@
         <v>688315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1324</v>
@@ -2514,13 +2574,13 @@
         <v>1313273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2648,13 @@
         <v>333652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>433</v>
@@ -2603,13 +2663,13 @@
         <v>442221</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>768</v>
@@ -2618,13 +2678,13 @@
         <v>775873</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2699,13 @@
         <v>2121090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2246</v>
@@ -2654,13 +2714,13 @@
         <v>2298716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4318</v>
@@ -2669,13 +2729,13 @@
         <v>4419806</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63E038E-C57F-4EE6-935D-1C72FBF62EEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015364D-2FB1-459D-9F33-C6706660811C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2876,13 +2936,13 @@
         <v>17210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2891,13 +2951,13 @@
         <v>19642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2906,13 +2966,13 @@
         <v>36852</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2987,13 @@
         <v>83544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>66</v>
@@ -2942,13 +3002,13 @@
         <v>74176</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -2957,13 +3017,13 @@
         <v>157720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3091,13 @@
         <v>85918</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -3046,13 +3106,13 @@
         <v>106222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -3061,13 +3121,13 @@
         <v>192140</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3142,13 @@
         <v>419279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -3097,13 +3157,13 @@
         <v>435761</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>809</v>
@@ -3112,13 +3172,13 @@
         <v>855040</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3246,13 @@
         <v>120450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -3201,13 +3261,13 @@
         <v>166696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>260</v>
@@ -3216,13 +3276,13 @@
         <v>287147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,28 +3297,28 @@
         <v>746548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>668</v>
       </c>
       <c r="I11" s="7">
-        <v>732126</v>
+        <v>732127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1360</v>
@@ -3267,13 +3327,13 @@
         <v>1478674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,7 +3360,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>898822</v>
+        <v>898823</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3341,13 +3401,13 @@
         <v>84512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -3356,13 +3416,13 @@
         <v>117711</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -3371,13 +3431,13 @@
         <v>202223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3452,13 @@
         <v>551521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3407,13 +3467,13 @@
         <v>560786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3422,13 +3482,13 @@
         <v>1112307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,7 +3544,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3496,13 +3556,13 @@
         <v>129056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -3511,13 +3571,13 @@
         <v>163427</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -3526,13 +3586,13 @@
         <v>292483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3607,13 @@
         <v>676620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>732</v>
@@ -3562,13 +3622,13 @@
         <v>769774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>1385</v>
@@ -3577,13 +3637,13 @@
         <v>1446394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3711,13 @@
         <v>437146</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>527</v>
@@ -3666,13 +3726,13 @@
         <v>573698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>921</v>
@@ -3681,13 +3741,13 @@
         <v>1010844</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,28 +3762,28 @@
         <v>2477512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2388</v>
       </c>
       <c r="I20" s="7">
-        <v>2572623</v>
+        <v>2572624</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>4730</v>
@@ -3732,13 +3792,13 @@
         <v>5050136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3825,7 @@
         <v>2915</v>
       </c>
       <c r="I21" s="7">
-        <v>3146321</v>
+        <v>3146322</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3794,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3815,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FB518-C26F-4833-BAF9-21D421C9D05B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD062B-D139-4D80-B341-EFB2742BC3DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3832,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,13 +3999,13 @@
         <v>13854</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3954,13 +4014,13 @@
         <v>14468</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -3969,13 +4029,13 @@
         <v>28322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +4050,13 @@
         <v>84921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4005,13 +4065,13 @@
         <v>86533</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -4020,13 +4080,13 @@
         <v>171454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4154,13 @@
         <v>40479</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -4109,13 +4169,13 @@
         <v>49859</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -4124,13 +4184,13 @@
         <v>90337</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4205,13 @@
         <v>385739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>395</v>
@@ -4160,13 +4220,13 @@
         <v>393502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>767</v>
@@ -4175,13 +4235,13 @@
         <v>779243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4309,13 @@
         <v>95579</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -4264,13 +4324,13 @@
         <v>103257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4279,13 +4339,13 @@
         <v>198836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4360,13 @@
         <v>720767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>728</v>
@@ -4315,13 +4375,13 @@
         <v>763116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1392</v>
@@ -4330,13 +4390,13 @@
         <v>1483883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4464,13 @@
         <v>44486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -4419,13 +4479,13 @@
         <v>60995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -4434,13 +4494,13 @@
         <v>105481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4515,13 @@
         <v>505874</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>499</v>
@@ -4470,13 +4530,13 @@
         <v>518743</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>960</v>
@@ -4485,13 +4545,13 @@
         <v>1024617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,7 +4607,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4559,13 +4619,13 @@
         <v>89327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -4574,13 +4634,13 @@
         <v>105011</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -4589,13 +4649,13 @@
         <v>194338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4670,13 @@
         <v>683308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>720</v>
@@ -4625,13 +4685,13 @@
         <v>771830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>1398</v>
@@ -4640,13 +4700,13 @@
         <v>1455138</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4774,13 @@
         <v>283725</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>298</v>
@@ -4729,13 +4789,13 @@
         <v>333590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -4744,13 +4804,13 @@
         <v>617315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4825,13 @@
         <v>2380609</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>2429</v>
@@ -4780,28 +4840,28 @@
         <v>2533725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>4686</v>
       </c>
       <c r="N20" s="7">
-        <v>4914333</v>
+        <v>4914334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4903,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4857,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0723D831-62D0-4381-A2A7-C388EF199D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B75F86-97A6-4494-B608-9DB42A1E27DE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4895,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5002,13 +5062,13 @@
         <v>12561</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -5017,13 +5077,13 @@
         <v>20991</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -5032,13 +5092,13 @@
         <v>33551</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5113,13 @@
         <v>87913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>187</v>
@@ -5068,13 +5128,13 @@
         <v>107295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>282</v>
@@ -5083,13 +5143,13 @@
         <v>195209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5217,13 @@
         <v>53774</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -5172,13 +5232,13 @@
         <v>77960</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>244</v>
@@ -5187,13 +5247,13 @@
         <v>131734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5268,13 @@
         <v>472375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>794</v>
@@ -5223,13 +5283,13 @@
         <v>491537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>1296</v>
@@ -5238,13 +5298,13 @@
         <v>963912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5372,13 @@
         <v>93538</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>170</v>
@@ -5327,13 +5387,13 @@
         <v>95067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>283</v>
@@ -5342,13 +5402,13 @@
         <v>188606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5423,13 @@
         <v>922058</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>1316</v>
@@ -5378,13 +5438,13 @@
         <v>947033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>2139</v>
@@ -5393,13 +5453,13 @@
         <v>1869090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5527,13 @@
         <v>70326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5482,13 +5542,13 @@
         <v>91284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>229</v>
@@ -5497,13 +5557,13 @@
         <v>161610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5578,13 @@
         <v>638215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>876</v>
@@ -5533,13 +5593,13 @@
         <v>770904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>1450</v>
@@ -5548,13 +5608,13 @@
         <v>1409120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,7 +5670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5622,13 +5682,13 @@
         <v>108025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>238</v>
@@ -5637,13 +5697,13 @@
         <v>150858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -5652,13 +5712,13 @@
         <v>258883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5733,13 @@
         <v>818353</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>1272</v>
@@ -5688,13 +5748,13 @@
         <v>963918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>2097</v>
@@ -5703,13 +5763,13 @@
         <v>1782271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5837,13 @@
         <v>338225</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>772</v>
@@ -5792,13 +5852,13 @@
         <v>436160</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>279</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>1206</v>
@@ -5807,13 +5867,13 @@
         <v>774384</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5888,13 @@
         <v>2938913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>4445</v>
@@ -5843,13 +5903,13 @@
         <v>3280688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>7264</v>
@@ -5858,13 +5918,13 @@
         <v>6219602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5604743-2EF1-442E-8ECA-95F753E76BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE4F616-8DD1-442C-8335-53E8A885E81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D5A0E94-4624-4CFD-B9CD-2885A45CB707}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83B8D50B-2738-42D2-B847-05F53B0BAB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,1276 +68,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B56C02-9BBF-46B4-8B98-71B1E64BCAE5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DA7E5C-8CC0-43BE-B170-257078C0CCD4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>11073</v>
+        <v>70717</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>20001</v>
+        <v>95592</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="N4" s="7">
-        <v>31074</v>
+        <v>166309</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>66692</v>
+        <v>407120</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="I5" s="7">
-        <v>74747</v>
+        <v>442512</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>143</v>
+        <v>845</v>
       </c>
       <c r="N5" s="7">
-        <v>141440</v>
+        <v>849632</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>538104</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1016</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1015941</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>59644</v>
+        <v>98404</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2037,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="I7" s="7">
-        <v>75591</v>
+        <v>123555</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2052,19 +1839,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="N7" s="7">
-        <v>135236</v>
+        <v>221959</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +1860,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>338</v>
+        <v>573</v>
       </c>
       <c r="D8" s="7">
-        <v>340428</v>
+        <v>623724</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>639</v>
+      </c>
+      <c r="I8" s="7">
+        <v>680671</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>364</v>
-      </c>
-      <c r="I8" s="7">
-        <v>367764</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1212</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1304395</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>702</v>
-      </c>
-      <c r="N8" s="7">
-        <v>708191</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>443355</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>839</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>843427</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2171,55 +1958,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>98404</v>
+        <v>79801</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>99</v>
+      </c>
+      <c r="I10" s="7">
+        <v>97391</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>117</v>
-      </c>
-      <c r="I10" s="7">
-        <v>123555</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>174</v>
+      </c>
+      <c r="N10" s="7">
+        <v>177191</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>212</v>
-      </c>
-      <c r="N10" s="7">
-        <v>221959</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2015,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="D11" s="7">
-        <v>623724</v>
+        <v>465288</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>497</v>
+      </c>
+      <c r="I11" s="7">
+        <v>487218</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>639</v>
-      </c>
-      <c r="I11" s="7">
-        <v>680671</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>937</v>
+      </c>
+      <c r="N11" s="7">
+        <v>952507</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>1212</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1304395</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>545089</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>584609</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1111</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1129698</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2326,55 +2113,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>92</v>
+      </c>
+      <c r="D13" s="7">
+        <v>84730</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
+        <v>119</v>
+      </c>
+      <c r="I13" s="7">
+        <v>125683</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="7">
+        <v>211</v>
+      </c>
+      <c r="N13" s="7">
+        <v>210413</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="7">
-        <v>79801</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>99</v>
-      </c>
-      <c r="I13" s="7">
-        <v>97391</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="7">
-        <v>174</v>
-      </c>
-      <c r="N13" s="7">
-        <v>177191</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,49 +2170,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>440</v>
+        <v>662</v>
       </c>
       <c r="D14" s="7">
-        <v>465288</v>
+        <v>624958</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>662</v>
+      </c>
+      <c r="I14" s="7">
+        <v>688315</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>497</v>
-      </c>
-      <c r="I14" s="7">
-        <v>487218</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1324</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1313273</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>937</v>
-      </c>
-      <c r="N14" s="7">
-        <v>952507</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>515</v>
+        <v>754</v>
       </c>
       <c r="D15" s="7">
-        <v>545089</v>
+        <v>709688</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>596</v>
+        <v>781</v>
       </c>
       <c r="I15" s="7">
-        <v>584609</v>
+        <v>813998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1111</v>
+        <v>1535</v>
       </c>
       <c r="N15" s="7">
-        <v>1129698</v>
+        <v>1523686</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,55 +2268,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>335</v>
+      </c>
+      <c r="D16" s="7">
+        <v>333652</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>433</v>
+      </c>
+      <c r="I16" s="7">
+        <v>442221</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>768</v>
+      </c>
+      <c r="N16" s="7">
+        <v>775873</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="7">
-        <v>84730</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="7">
-        <v>119</v>
-      </c>
-      <c r="I16" s="7">
-        <v>125683</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>211</v>
-      </c>
-      <c r="N16" s="7">
-        <v>210413</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2325,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>662</v>
+        <v>2072</v>
       </c>
       <c r="D17" s="7">
-        <v>624958</v>
+        <v>2121090</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2246</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2298716</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>662</v>
-      </c>
-      <c r="I17" s="7">
-        <v>688315</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4318</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4419806</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1324</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1313273</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>754</v>
+        <v>2407</v>
       </c>
       <c r="D18" s="7">
-        <v>709688</v>
+        <v>2454742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>781</v>
+        <v>2679</v>
       </c>
       <c r="I18" s="7">
-        <v>813998</v>
+        <v>2740937</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1535</v>
+        <v>5086</v>
       </c>
       <c r="N18" s="7">
-        <v>1523686</v>
+        <v>5195679</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2422,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>335</v>
-      </c>
-      <c r="D19" s="7">
-        <v>333652</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>433</v>
-      </c>
-      <c r="I19" s="7">
-        <v>442221</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>768</v>
-      </c>
-      <c r="N19" s="7">
-        <v>775873</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2072</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2121090</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2246</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2298716</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4318</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4419806</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2407</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2454742</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2679</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2740937</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5086</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5195679</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015364D-2FB1-459D-9F33-C6706660811C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9164C71C-BF7F-45E5-B3EF-17C30854E4B7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D4" s="7">
-        <v>17210</v>
+        <v>103128</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I4" s="7">
-        <v>19642</v>
+        <v>125864</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="N4" s="7">
-        <v>36852</v>
+        <v>228992</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>87</v>
+        <v>486</v>
       </c>
       <c r="D5" s="7">
-        <v>83544</v>
+        <v>502823</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>66</v>
+        <v>476</v>
       </c>
       <c r="I5" s="7">
-        <v>74176</v>
+        <v>509937</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>153</v>
+        <v>962</v>
       </c>
       <c r="N5" s="7">
-        <v>157720</v>
+        <v>1012760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>581</v>
       </c>
       <c r="D6" s="7">
-        <v>100754</v>
+        <v>605951</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>635801</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>187</v>
+        <v>1173</v>
       </c>
       <c r="N6" s="7">
-        <v>194572</v>
+        <v>1241752</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7">
-        <v>85918</v>
+        <v>120450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="I7" s="7">
-        <v>106222</v>
+        <v>166696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="N7" s="7">
-        <v>192140</v>
+        <v>287147</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>399</v>
+        <v>692</v>
       </c>
       <c r="D8" s="7">
-        <v>419279</v>
+        <v>746548</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>410</v>
+        <v>668</v>
       </c>
       <c r="I8" s="7">
-        <v>435761</v>
+        <v>732127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>809</v>
+        <v>1360</v>
       </c>
       <c r="N8" s="7">
-        <v>855040</v>
+        <v>1478674</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>476</v>
+        <v>799</v>
       </c>
       <c r="D9" s="7">
-        <v>505197</v>
+        <v>866998</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>510</v>
+        <v>821</v>
       </c>
       <c r="I9" s="7">
-        <v>541983</v>
+        <v>898823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>986</v>
+        <v>1620</v>
       </c>
       <c r="N9" s="7">
-        <v>1047180</v>
+        <v>1765821</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3234,55 +2865,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>120450</v>
+        <v>84512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="I10" s="7">
-        <v>166696</v>
+        <v>117711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>287147</v>
+        <v>202223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>692</v>
+        <v>511</v>
       </c>
       <c r="D11" s="7">
-        <v>746548</v>
+        <v>551521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>668</v>
+        <v>512</v>
       </c>
       <c r="I11" s="7">
-        <v>732127</v>
+        <v>560786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1360</v>
+        <v>1023</v>
       </c>
       <c r="N11" s="7">
-        <v>1478674</v>
+        <v>1112306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>799</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
-        <v>866998</v>
+        <v>636033</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>821</v>
+        <v>615</v>
       </c>
       <c r="I12" s="7">
-        <v>898823</v>
+        <v>678497</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1620</v>
+        <v>1197</v>
       </c>
       <c r="N12" s="7">
-        <v>1765821</v>
+        <v>1314529</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3389,55 +3020,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>84512</v>
+        <v>129056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="I13" s="7">
-        <v>117711</v>
+        <v>163427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="N13" s="7">
-        <v>202223</v>
+        <v>292483</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>511</v>
+        <v>653</v>
       </c>
       <c r="D14" s="7">
-        <v>551521</v>
+        <v>676620</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>512</v>
+        <v>732</v>
       </c>
       <c r="I14" s="7">
-        <v>560786</v>
+        <v>769774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>1023</v>
+        <v>1385</v>
       </c>
       <c r="N14" s="7">
-        <v>1112307</v>
+        <v>1446394</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>774</v>
       </c>
       <c r="D15" s="7">
-        <v>636033</v>
+        <v>805676</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>615</v>
+        <v>887</v>
       </c>
       <c r="I15" s="7">
-        <v>678497</v>
+        <v>933201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1197</v>
+        <v>1661</v>
       </c>
       <c r="N15" s="7">
-        <v>1314530</v>
+        <v>1738877</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3175,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>394</v>
       </c>
       <c r="D16" s="7">
-        <v>129056</v>
+        <v>437147</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>155</v>
+        <v>527</v>
       </c>
       <c r="I16" s="7">
-        <v>163427</v>
+        <v>573698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>276</v>
+        <v>921</v>
       </c>
       <c r="N16" s="7">
-        <v>292483</v>
+        <v>1010844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>653</v>
+        <v>2342</v>
       </c>
       <c r="D17" s="7">
-        <v>676620</v>
+        <v>2477512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>732</v>
+        <v>2388</v>
       </c>
       <c r="I17" s="7">
-        <v>769774</v>
+        <v>2572623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>1385</v>
+        <v>4730</v>
       </c>
       <c r="N17" s="7">
-        <v>1446394</v>
+        <v>5050136</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>774</v>
+        <v>2736</v>
       </c>
       <c r="D18" s="7">
-        <v>805676</v>
+        <v>2914659</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>887</v>
+        <v>2915</v>
       </c>
       <c r="I18" s="7">
-        <v>933201</v>
+        <v>3146321</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1661</v>
+        <v>5651</v>
       </c>
       <c r="N18" s="7">
-        <v>1738877</v>
+        <v>6060980</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3329,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>394</v>
-      </c>
-      <c r="D19" s="7">
-        <v>437146</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>527</v>
-      </c>
-      <c r="I19" s="7">
-        <v>573698</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>921</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1010844</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2342</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2477512</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2388</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2572624</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4730</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5050136</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2736</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3146322</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5651</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6060980</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD062B-D139-4D80-B341-EFB2742BC3DB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B33625-2037-4B14-A01A-A1F42F24E384}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>13854</v>
+        <v>54333</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>14468</v>
+        <v>64327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="N4" s="7">
-        <v>28322</v>
+        <v>118659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="D5" s="7">
-        <v>84921</v>
+        <v>470660</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>87</v>
+        <v>482</v>
       </c>
       <c r="I5" s="7">
-        <v>86533</v>
+        <v>480036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>169</v>
+        <v>936</v>
       </c>
       <c r="N5" s="7">
-        <v>171454</v>
+        <v>950697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7">
-        <v>40479</v>
+        <v>95579</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I7" s="7">
-        <v>49859</v>
+        <v>103257</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="N7" s="7">
-        <v>90337</v>
+        <v>198836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>372</v>
+        <v>664</v>
       </c>
       <c r="D8" s="7">
-        <v>385739</v>
+        <v>720767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
-        <v>395</v>
+        <v>728</v>
       </c>
       <c r="I8" s="7">
-        <v>393502</v>
+        <v>763116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
-        <v>767</v>
+        <v>1392</v>
       </c>
       <c r="N8" s="7">
-        <v>779243</v>
+        <v>1483883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4297,55 +3772,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>95579</v>
+        <v>44486</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>103257</v>
+        <v>60995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>198836</v>
+        <v>105481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>664</v>
+        <v>461</v>
       </c>
       <c r="D11" s="7">
-        <v>720767</v>
+        <v>505874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>728</v>
+        <v>499</v>
       </c>
       <c r="I11" s="7">
-        <v>763116</v>
+        <v>518743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>1392</v>
+        <v>960</v>
       </c>
       <c r="N11" s="7">
-        <v>1483883</v>
+        <v>1024617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,55 +3927,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7">
-        <v>44486</v>
+        <v>89327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>60995</v>
+        <v>105011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="N13" s="7">
-        <v>105481</v>
+        <v>194338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>461</v>
+        <v>678</v>
       </c>
       <c r="D14" s="7">
-        <v>505874</v>
+        <v>683308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
-        <v>499</v>
+        <v>720</v>
       </c>
       <c r="I14" s="7">
-        <v>518743</v>
+        <v>771830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
-        <v>960</v>
+        <v>1398</v>
       </c>
       <c r="N14" s="7">
-        <v>1024617</v>
+        <v>1455138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>876841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1581</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1649476</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4082,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="D16" s="7">
-        <v>89327</v>
+        <v>283725</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="I16" s="7">
-        <v>105011</v>
+        <v>333590</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
-        <v>183</v>
+        <v>571</v>
       </c>
       <c r="N16" s="7">
-        <v>194338</v>
+        <v>617315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>678</v>
+        <v>2257</v>
       </c>
       <c r="D17" s="7">
-        <v>683308</v>
+        <v>2380608</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>720</v>
+        <v>2429</v>
       </c>
       <c r="I17" s="7">
-        <v>771830</v>
+        <v>2533725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>1398</v>
+        <v>4686</v>
       </c>
       <c r="N17" s="7">
-        <v>1455138</v>
+        <v>4914333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>813</v>
+        <v>2727</v>
       </c>
       <c r="I18" s="7">
-        <v>876841</v>
+        <v>2867315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1581</v>
+        <v>5257</v>
       </c>
       <c r="N18" s="7">
-        <v>1649476</v>
+        <v>5531648</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4236,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>273</v>
-      </c>
-      <c r="D19" s="7">
-        <v>283725</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="7">
-        <v>298</v>
-      </c>
-      <c r="I19" s="7">
-        <v>333590</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M19" s="7">
-        <v>571</v>
-      </c>
-      <c r="N19" s="7">
-        <v>617315</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2257</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2380609</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2429</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2533725</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4686</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4914334</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2727</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2867315</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B75F86-97A6-4494-B608-9DB42A1E27DE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB7E5CB-2F8B-4C4E-9FA3-39BB2BDE9D70}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D4" s="7">
-        <v>12561</v>
+        <v>63667</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="I4" s="7">
-        <v>20991</v>
+        <v>91566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="N4" s="7">
-        <v>33551</v>
+        <v>155233</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>597</v>
       </c>
       <c r="D5" s="7">
-        <v>87913</v>
+        <v>547637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>187</v>
+        <v>981</v>
       </c>
       <c r="I5" s="7">
-        <v>107295</v>
+        <v>559966</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>282</v>
+        <v>1578</v>
       </c>
       <c r="N5" s="7">
-        <v>195209</v>
+        <v>1107603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4507,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D7" s="7">
-        <v>53774</v>
+        <v>87703</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I7" s="7">
-        <v>77960</v>
+        <v>85985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="N7" s="7">
-        <v>131734</v>
+        <v>173688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>502</v>
+        <v>823</v>
       </c>
       <c r="D8" s="7">
-        <v>472375</v>
+        <v>1079013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>794</v>
+        <v>1316</v>
       </c>
       <c r="I8" s="7">
-        <v>491537</v>
+        <v>856340</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>1296</v>
+        <v>2139</v>
       </c>
       <c r="N8" s="7">
-        <v>963912</v>
+        <v>1935352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2109040</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5360,55 +4679,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>93538</v>
+        <v>66662</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I10" s="7">
-        <v>95067</v>
+        <v>84498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="N10" s="7">
-        <v>188606</v>
+        <v>151161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>823</v>
+        <v>574</v>
       </c>
       <c r="D11" s="7">
-        <v>922058</v>
+        <v>619605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
-        <v>1316</v>
+        <v>876</v>
       </c>
       <c r="I11" s="7">
-        <v>947033</v>
+        <v>837555</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
-        <v>2139</v>
+        <v>1450</v>
       </c>
       <c r="N11" s="7">
-        <v>1869090</v>
+        <v>1457159</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015596</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4817,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057696</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5515,55 +4834,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D13" s="7">
-        <v>70326</v>
+        <v>102583</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="I13" s="7">
-        <v>91284</v>
+        <v>135881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>161610</v>
+        <v>238464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>574</v>
+        <v>825</v>
       </c>
       <c r="D14" s="7">
-        <v>638215</v>
+        <v>787352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>876</v>
+        <v>1272</v>
       </c>
       <c r="I14" s="7">
-        <v>770904</v>
+        <v>927036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
-        <v>1450</v>
+        <v>2097</v>
       </c>
       <c r="N14" s="7">
-        <v>1409120</v>
+        <v>1714387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +4942,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>889935</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1952851</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +4989,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>141</v>
+        <v>434</v>
       </c>
       <c r="D16" s="7">
-        <v>108025</v>
+        <v>320615</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
-        <v>238</v>
+        <v>772</v>
       </c>
       <c r="I16" s="7">
-        <v>150858</v>
+        <v>397930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
-        <v>379</v>
+        <v>1206</v>
       </c>
       <c r="N16" s="7">
-        <v>258883</v>
+        <v>718545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5046,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>825</v>
+        <v>2819</v>
       </c>
       <c r="D17" s="7">
-        <v>818353</v>
+        <v>3033606</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
-        <v>1272</v>
+        <v>4445</v>
       </c>
       <c r="I17" s="7">
-        <v>963918</v>
+        <v>3180897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
-        <v>2097</v>
+        <v>7264</v>
       </c>
       <c r="N17" s="7">
-        <v>1782271</v>
+        <v>6214503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>966</v>
+        <v>3253</v>
       </c>
       <c r="D18" s="7">
-        <v>926378</v>
+        <v>3354221</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5112,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>8470</v>
       </c>
       <c r="N18" s="7">
-        <v>2041154</v>
+        <v>6933048</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5143,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>434</v>
-      </c>
-      <c r="D19" s="7">
-        <v>338225</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="7">
-        <v>772</v>
-      </c>
-      <c r="I19" s="7">
-        <v>436160</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1206</v>
-      </c>
-      <c r="N19" s="7">
-        <v>774384</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2819</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2938913</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4445</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3280688</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7264</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6219602</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3253</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8470</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
